--- a/employee_leave_2025.xlsx
+++ b/employee_leave_2025.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Employee_Name</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Folashade</t>
+  </si>
+  <si>
+    <t>Olayinka</t>
   </si>
 </sst>
 </file>
@@ -1165,10 +1168,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2010,6 +2013,29 @@
         <v>8</v>
       </c>
     </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45768</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45782</v>
+      </c>
+      <c r="D37" s="1">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1">
+        <v>22</v>
+      </c>
+      <c r="F37" s="1">
+        <v>11</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/employee_leave_2025.xlsx
+++ b/employee_leave_2025.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
   <si>
     <t>Employee_Name</t>
   </si>
@@ -159,6 +159,36 @@
   </si>
   <si>
     <t>Olayinka</t>
+  </si>
+  <si>
+    <t>Adenike</t>
+  </si>
+  <si>
+    <t>Agozue</t>
+  </si>
+  <si>
+    <t>Seyi</t>
+  </si>
+  <si>
+    <t>Ruemu</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Adedayo</t>
+  </si>
+  <si>
+    <t>Rachael</t>
+  </si>
+  <si>
+    <t>Stella</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Tinuola</t>
   </si>
 </sst>
 </file>
@@ -1168,10 +1198,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2036,6 +2066,282 @@
         <v>8</v>
       </c>
     </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45775</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45779</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5</v>
+      </c>
+      <c r="E38" s="1">
+        <v>22</v>
+      </c>
+      <c r="F38" s="1">
+        <v>17</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45761</v>
+      </c>
+      <c r="C39" s="2">
+        <v>45772</v>
+      </c>
+      <c r="D39" s="1">
+        <v>10</v>
+      </c>
+      <c r="E39" s="1">
+        <v>22</v>
+      </c>
+      <c r="F39" s="1">
+        <v>12</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45768</v>
+      </c>
+      <c r="C40" s="2">
+        <v>45772</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1">
+        <v>22</v>
+      </c>
+      <c r="F40" s="1">
+        <v>17</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45761</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45765</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1">
+        <v>22</v>
+      </c>
+      <c r="F41" s="1">
+        <v>17</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45775</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45779</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>22</v>
+      </c>
+      <c r="F42" s="1">
+        <v>17</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45768</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45783</v>
+      </c>
+      <c r="D43" s="1">
+        <v>12</v>
+      </c>
+      <c r="E43" s="1">
+        <v>22</v>
+      </c>
+      <c r="F43" s="1">
+        <v>10</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45754</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45779</v>
+      </c>
+      <c r="D44" s="1">
+        <v>20</v>
+      </c>
+      <c r="E44" s="1">
+        <v>20</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45768</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45772</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5</v>
+      </c>
+      <c r="E45" s="1">
+        <v>17</v>
+      </c>
+      <c r="F45" s="1">
+        <v>12</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45768</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45772</v>
+      </c>
+      <c r="D46" s="1">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1">
+        <v>17</v>
+      </c>
+      <c r="F46" s="1">
+        <v>12</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45789</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45804</v>
+      </c>
+      <c r="D47" s="1">
+        <v>12</v>
+      </c>
+      <c r="E47" s="1">
+        <v>22</v>
+      </c>
+      <c r="F47" s="1">
+        <v>10</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45775</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45779</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5</v>
+      </c>
+      <c r="E48" s="1">
+        <v>22</v>
+      </c>
+      <c r="F48" s="1">
+        <v>17</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45775</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45779</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5</v>
+      </c>
+      <c r="E49" s="1">
+        <v>22</v>
+      </c>
+      <c r="F49" s="1">
+        <v>17</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
